--- a/Data_clean/MCAS/Estados_US/Edos_USA_2016/PENNSYLVANIA_2016.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2016/PENNSYLVANIA_2016.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D941"/>
+  <dimension ref="A1:D935"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -425,7 +425,7 @@
         <v>5</v>
       </c>
       <c r="D4">
-        <v>0.0009278159213212099</v>
+        <v>0.00092781592132121</v>
       </c>
     </row>
     <row r="5">
@@ -451,7 +451,7 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>0.0009278159213212099</v>
+        <v>0.00092781592132121</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         <v>5</v>
       </c>
       <c r="D11">
-        <v>0.0009278159213212099</v>
+        <v>0.00092781592132121</v>
       </c>
     </row>
     <row r="12">
@@ -628,7 +628,7 @@
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C19">
@@ -667,7 +667,7 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C22">
@@ -732,7 +732,7 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C27">
@@ -771,7 +771,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C30">
@@ -1005,7 +1005,7 @@
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C48">
@@ -1129,7 +1129,7 @@
         <v>5</v>
       </c>
       <c r="D57">
-        <v>0.0009278159213212099</v>
+        <v>0.00092781592132121</v>
       </c>
     </row>
     <row r="58">
@@ -1296,7 +1296,7 @@
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C70">
@@ -1329,7 +1329,7 @@
         <v>5</v>
       </c>
       <c r="D72">
-        <v>0.0009278159213212099</v>
+        <v>0.00092781592132121</v>
       </c>
     </row>
     <row r="73">
@@ -1488,7 +1488,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1758,12 +1758,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C104">
@@ -1802,7 +1802,7 @@
     <row r="107">
       <c r="B107" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C107">
@@ -1815,7 +1815,7 @@
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C108">
@@ -1828,7 +1828,7 @@
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C109">
@@ -1893,7 +1893,7 @@
     <row r="114">
       <c r="B114" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C114">
@@ -1913,7 +1913,7 @@
         <v>5</v>
       </c>
       <c r="D115">
-        <v>0.0009278159213212099</v>
+        <v>0.00092781592132121</v>
       </c>
     </row>
     <row r="116">
@@ -2049,7 +2049,7 @@
     <row r="126">
       <c r="B126" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C126">
@@ -2127,7 +2127,7 @@
     <row r="132">
       <c r="B132" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C132">
@@ -2140,7 +2140,7 @@
     <row r="133">
       <c r="B133" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C133">
@@ -2257,7 +2257,7 @@
     <row r="142">
       <c r="B142" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C142">
@@ -2361,7 +2361,7 @@
     <row r="150">
       <c r="B150" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C150">
@@ -2374,7 +2374,7 @@
     <row r="151">
       <c r="B151" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C151">
@@ -2387,7 +2387,7 @@
     <row r="152">
       <c r="B152" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C152">
@@ -2491,7 +2491,7 @@
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C160">
@@ -2595,7 +2595,7 @@
     <row r="168">
       <c r="B168" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C168">
@@ -2660,7 +2660,7 @@
     <row r="173">
       <c r="B173" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C173">
@@ -2673,7 +2673,7 @@
     <row r="174">
       <c r="B174" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C174">
@@ -2686,7 +2686,7 @@
     <row r="175">
       <c r="B175" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C175">
@@ -2699,7 +2699,7 @@
     <row r="176">
       <c r="B176" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C176">
@@ -2847,7 +2847,7 @@
     <row r="187">
       <c r="B187" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C187">
@@ -2860,7 +2860,7 @@
     <row r="188">
       <c r="B188" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C188">
@@ -2873,7 +2873,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C189">
@@ -2951,7 +2951,7 @@
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C195">
@@ -3003,7 +3003,7 @@
     <row r="199">
       <c r="B199" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C199">
@@ -3120,7 +3120,7 @@
     <row r="208">
       <c r="B208" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C208">
@@ -3146,7 +3146,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C210">
@@ -3159,7 +3159,7 @@
     <row r="211">
       <c r="B211" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C211">
@@ -3185,7 +3185,7 @@
     <row r="213">
       <c r="B213" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C213">
@@ -3250,7 +3250,7 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C218">
@@ -3320,7 +3320,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C223">
@@ -3346,7 +3346,7 @@
     <row r="225">
       <c r="B225" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C225">
@@ -3359,7 +3359,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C226">
@@ -3411,7 +3411,7 @@
     <row r="230">
       <c r="B230" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C230">
@@ -3437,7 +3437,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C232">
@@ -3450,14 +3450,14 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C233">
         <v>5</v>
       </c>
       <c r="D233">
-        <v>0.0009278159213212099</v>
+        <v>0.00092781592132121</v>
       </c>
     </row>
     <row r="234">
@@ -3470,7 +3470,7 @@
         <v>5</v>
       </c>
       <c r="D234">
-        <v>0.0009278159213212099</v>
+        <v>0.00092781592132121</v>
       </c>
     </row>
     <row r="235">
@@ -3489,7 +3489,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C236">
@@ -3502,7 +3502,7 @@
     <row r="237">
       <c r="B237" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C237">
@@ -3515,7 +3515,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C238">
@@ -3528,7 +3528,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C239">
@@ -3561,7 +3561,7 @@
         <v>5</v>
       </c>
       <c r="D241">
-        <v>0.0009278159213212099</v>
+        <v>0.00092781592132121</v>
       </c>
     </row>
     <row r="242">
@@ -3580,7 +3580,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C243">
@@ -3593,7 +3593,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C244">
@@ -3619,7 +3619,7 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C246">
@@ -3697,7 +3697,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C252">
@@ -3710,7 +3710,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C253">
@@ -3736,7 +3736,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C255">
@@ -3762,7 +3762,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C257">
@@ -3860,7 +3860,7 @@
         <v>5</v>
       </c>
       <c r="D264">
-        <v>0.0009278159213212099</v>
+        <v>0.00092781592132121</v>
       </c>
     </row>
     <row r="265">
@@ -3944,7 +3944,7 @@
     <row r="271">
       <c r="B271" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C271">
@@ -3970,7 +3970,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C273">
@@ -3996,14 +3996,14 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C275">
         <v>5</v>
       </c>
       <c r="D275">
-        <v>0.0009278159213212099</v>
+        <v>0.00092781592132121</v>
       </c>
     </row>
     <row r="276">
@@ -4035,7 +4035,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C278">
@@ -4068,7 +4068,7 @@
         <v>5</v>
       </c>
       <c r="D280">
-        <v>0.0009278159213212099</v>
+        <v>0.00092781592132121</v>
       </c>
     </row>
     <row r="281">
@@ -4081,7 +4081,7 @@
         <v>5</v>
       </c>
       <c r="D281">
-        <v>0.0009278159213212099</v>
+        <v>0.00092781592132121</v>
       </c>
     </row>
     <row r="282">
@@ -4170,7 +4170,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C288">
@@ -4209,7 +4209,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C291">
@@ -4235,7 +4235,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C293">
@@ -4300,7 +4300,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C298">
@@ -4352,7 +4352,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C302">
@@ -4417,7 +4417,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>Mineral de la Reforma</t>
+          <t>Mineral De La Reforma</t>
         </is>
       </c>
       <c r="C307">
@@ -4430,7 +4430,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C308">
@@ -4443,7 +4443,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C309">
@@ -4456,7 +4456,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C310">
@@ -4469,7 +4469,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C311">
@@ -4495,7 +4495,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C313">
@@ -4547,7 +4547,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C317">
@@ -4567,7 +4567,7 @@
         <v>5</v>
       </c>
       <c r="D318">
-        <v>0.0009278159213212099</v>
+        <v>0.00092781592132121</v>
       </c>
     </row>
     <row r="319">
@@ -4586,7 +4586,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C320">
@@ -4612,7 +4612,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C322">
@@ -4664,7 +4664,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C326">
@@ -4677,7 +4677,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C327">
@@ -4690,7 +4690,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C328">
@@ -4716,7 +4716,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C330">
@@ -4729,7 +4729,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C331">
@@ -4762,7 +4762,7 @@
         <v>5</v>
       </c>
       <c r="D333">
-        <v>0.0009278159213212099</v>
+        <v>0.00092781592132121</v>
       </c>
     </row>
     <row r="334">
@@ -4799,7 +4799,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C336">
@@ -4877,7 +4877,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C342">
@@ -4903,7 +4903,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C344">
@@ -4955,7 +4955,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C348">
@@ -5007,7 +5007,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C352">
@@ -5059,7 +5059,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C356">
@@ -5144,7 +5144,7 @@
         <v>5</v>
       </c>
       <c r="D362">
-        <v>0.0009278159213212099</v>
+        <v>0.00092781592132121</v>
       </c>
     </row>
     <row r="363">
@@ -5409,7 +5409,7 @@
         <v>5</v>
       </c>
       <c r="D382">
-        <v>0.0009278159213212099</v>
+        <v>0.00092781592132121</v>
       </c>
     </row>
     <row r="383">
@@ -5539,7 +5539,7 @@
         <v>5</v>
       </c>
       <c r="D392">
-        <v>0.0009278159213212099</v>
+        <v>0.00092781592132121</v>
       </c>
     </row>
     <row r="393">
@@ -5682,7 +5682,7 @@
         <v>5</v>
       </c>
       <c r="D403">
-        <v>0.0009278159213212099</v>
+        <v>0.00092781592132121</v>
       </c>
     </row>
     <row r="404">
@@ -5760,7 +5760,7 @@
         <v>5</v>
       </c>
       <c r="D409">
-        <v>0.0009278159213212099</v>
+        <v>0.00092781592132121</v>
       </c>
     </row>
     <row r="410">
@@ -5896,7 +5896,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C420">
@@ -5942,7 +5942,7 @@
         <v>5</v>
       </c>
       <c r="D423">
-        <v>0.0009278159213212099</v>
+        <v>0.00092781592132121</v>
       </c>
     </row>
     <row r="424">
@@ -5955,7 +5955,7 @@
         <v>5</v>
       </c>
       <c r="D424">
-        <v>0.0009278159213212099</v>
+        <v>0.00092781592132121</v>
       </c>
     </row>
     <row r="425">
@@ -5994,7 +5994,7 @@
         <v>5</v>
       </c>
       <c r="D427">
-        <v>0.0009278159213212099</v>
+        <v>0.00092781592132121</v>
       </c>
     </row>
     <row r="428">
@@ -6129,7 +6129,7 @@
         <v>5</v>
       </c>
       <c r="D437">
-        <v>0.0009278159213212099</v>
+        <v>0.00092781592132121</v>
       </c>
     </row>
     <row r="438">
@@ -6194,7 +6194,7 @@
         <v>5</v>
       </c>
       <c r="D442">
-        <v>0.0009278159213212099</v>
+        <v>0.00092781592132121</v>
       </c>
     </row>
     <row r="443">
@@ -6207,7 +6207,7 @@
         <v>5</v>
       </c>
       <c r="D443">
-        <v>0.0009278159213212099</v>
+        <v>0.00092781592132121</v>
       </c>
     </row>
     <row r="444">
@@ -6278,7 +6278,7 @@
     <row r="449">
       <c r="B449" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C449">
@@ -6291,7 +6291,7 @@
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C450">
@@ -6337,7 +6337,7 @@
         <v>5</v>
       </c>
       <c r="D453">
-        <v>0.0009278159213212099</v>
+        <v>0.00092781592132121</v>
       </c>
     </row>
     <row r="454">
@@ -6496,7 +6496,7 @@
     <row r="465">
       <c r="B465" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C465">
@@ -6527,14 +6527,14 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C467">
         <v>5</v>
       </c>
       <c r="D467">
-        <v>0.0009278159213212099</v>
+        <v>0.00092781592132121</v>
       </c>
     </row>
     <row r="468">
@@ -6592,7 +6592,7 @@
     <row r="472">
       <c r="B472" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C472">
@@ -6618,7 +6618,7 @@
     <row r="474">
       <c r="B474" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C474">
@@ -6631,7 +6631,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C475">
@@ -6657,7 +6657,7 @@
     <row r="477">
       <c r="B477" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C477">
@@ -6670,7 +6670,7 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C478">
@@ -6683,7 +6683,7 @@
     <row r="479">
       <c r="B479" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C479">
@@ -6696,7 +6696,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C480">
@@ -6709,7 +6709,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C481">
@@ -6722,7 +6722,7 @@
     <row r="482">
       <c r="B482" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C482">
@@ -6748,7 +6748,7 @@
     <row r="484">
       <c r="B484" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C484">
@@ -6787,7 +6787,7 @@
     <row r="487">
       <c r="B487" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C487">
@@ -6813,7 +6813,7 @@
     <row r="489">
       <c r="B489" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C489">
@@ -6826,7 +6826,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C490">
@@ -6839,7 +6839,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C491">
@@ -6865,7 +6865,7 @@
     <row r="493">
       <c r="B493" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C493">
@@ -6963,7 +6963,7 @@
         <v>5</v>
       </c>
       <c r="D500">
-        <v>0.0009278159213212099</v>
+        <v>0.00092781592132121</v>
       </c>
     </row>
     <row r="501">
@@ -7060,7 +7060,7 @@
     <row r="508">
       <c r="B508" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C508">
@@ -7203,7 +7203,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C519">
@@ -7229,7 +7229,7 @@
     <row r="521">
       <c r="B521" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C521">
@@ -7515,7 +7515,7 @@
     <row r="543">
       <c r="B543" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C543">
@@ -7639,7 +7639,7 @@
         <v>5</v>
       </c>
       <c r="D552">
-        <v>0.0009278159213212099</v>
+        <v>0.00092781592132121</v>
       </c>
     </row>
     <row r="553">
@@ -7996,7 +7996,7 @@
     <row r="580">
       <c r="B580" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C580">
@@ -8048,7 +8048,7 @@
     <row r="584">
       <c r="B584" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C584">
@@ -8061,7 +8061,7 @@
     <row r="585">
       <c r="B585" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C585">
@@ -8087,7 +8087,7 @@
     <row r="587">
       <c r="B587" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C587">
@@ -8100,7 +8100,7 @@
     <row r="588">
       <c r="B588" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C588">
@@ -8113,7 +8113,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C589">
@@ -8126,7 +8126,7 @@
     <row r="590">
       <c r="B590" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C590">
@@ -8139,7 +8139,7 @@
     <row r="591">
       <c r="B591" t="inlineStr">
         <is>
-          <t>Villa Talea de Castro</t>
+          <t>Villa Talea De Castro</t>
         </is>
       </c>
       <c r="C591">
@@ -8152,7 +8152,7 @@
     <row r="592">
       <c r="B592" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C592">
@@ -8190,7 +8190,7 @@
         <v>5</v>
       </c>
       <c r="D594">
-        <v>0.0009278159213212099</v>
+        <v>0.00092781592132121</v>
       </c>
     </row>
     <row r="595">
@@ -8294,7 +8294,7 @@
         <v>5</v>
       </c>
       <c r="D602">
-        <v>0.0009278159213212099</v>
+        <v>0.00092781592132121</v>
       </c>
     </row>
     <row r="603">
@@ -8359,7 +8359,7 @@
         <v>5</v>
       </c>
       <c r="D607">
-        <v>0.0009278159213212099</v>
+        <v>0.00092781592132121</v>
       </c>
     </row>
     <row r="608">
@@ -8378,7 +8378,7 @@
     <row r="609">
       <c r="B609" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C609">
@@ -8489,7 +8489,7 @@
         <v>5</v>
       </c>
       <c r="D617">
-        <v>0.0009278159213212099</v>
+        <v>0.00092781592132121</v>
       </c>
     </row>
     <row r="618">
@@ -8508,7 +8508,7 @@
     <row r="619">
       <c r="B619" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C619">
@@ -8612,7 +8612,7 @@
     <row r="627">
       <c r="B627" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C627">
@@ -8625,7 +8625,7 @@
     <row r="628">
       <c r="B628" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C628">
@@ -8781,7 +8781,7 @@
     <row r="640">
       <c r="B640" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C640">
@@ -8794,14 +8794,14 @@
     <row r="641">
       <c r="B641" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C641">
         <v>5</v>
       </c>
       <c r="D641">
-        <v>0.0009278159213212099</v>
+        <v>0.00092781592132121</v>
       </c>
     </row>
     <row r="642">
@@ -8833,7 +8833,7 @@
     <row r="644">
       <c r="B644" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C644">
@@ -8859,7 +8859,7 @@
     <row r="646">
       <c r="B646" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C646">
@@ -8898,7 +8898,7 @@
     <row r="649">
       <c r="B649" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C649">
@@ -8963,7 +8963,7 @@
     <row r="654">
       <c r="B654" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C654">
@@ -9041,14 +9041,14 @@
     <row r="660">
       <c r="B660" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C660">
         <v>5</v>
       </c>
       <c r="D660">
-        <v>0.0009278159213212099</v>
+        <v>0.00092781592132121</v>
       </c>
     </row>
     <row r="661">
@@ -9061,7 +9061,7 @@
         <v>5</v>
       </c>
       <c r="D661">
-        <v>0.0009278159213212099</v>
+        <v>0.00092781592132121</v>
       </c>
     </row>
     <row r="662">
@@ -9126,7 +9126,7 @@
         <v>5</v>
       </c>
       <c r="D666">
-        <v>0.0009278159213212099</v>
+        <v>0.00092781592132121</v>
       </c>
     </row>
     <row r="667">
@@ -9236,14 +9236,14 @@
     <row r="675">
       <c r="B675" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C675">
         <v>5</v>
       </c>
       <c r="D675">
-        <v>0.0009278159213212099</v>
+        <v>0.00092781592132121</v>
       </c>
     </row>
     <row r="676">
@@ -9275,7 +9275,7 @@
     <row r="678">
       <c r="B678" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C678">
@@ -9288,7 +9288,7 @@
     <row r="679">
       <c r="B679" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C679">
@@ -9340,7 +9340,7 @@
     <row r="683">
       <c r="B683" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C683">
@@ -9386,7 +9386,7 @@
         <v>5</v>
       </c>
       <c r="D686">
-        <v>0.0009278159213212099</v>
+        <v>0.00092781592132121</v>
       </c>
     </row>
     <row r="687">
@@ -9418,7 +9418,7 @@
     <row r="689">
       <c r="B689" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C689">
@@ -9431,7 +9431,7 @@
     <row r="690">
       <c r="B690" t="inlineStr">
         <is>
-          <t>Tepango de Rodríguez</t>
+          <t>Tepango De Rodríguez</t>
         </is>
       </c>
       <c r="C690">
@@ -9509,7 +9509,7 @@
     <row r="696">
       <c r="B696" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C696">
@@ -9535,14 +9535,14 @@
     <row r="698">
       <c r="B698" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C698">
         <v>5</v>
       </c>
       <c r="D698">
-        <v>0.0009278159213212099</v>
+        <v>0.00092781592132121</v>
       </c>
     </row>
     <row r="699">
@@ -9594,13 +9594,13 @@
         <v>5</v>
       </c>
       <c r="D702">
-        <v>0.0009278159213212099</v>
+        <v>0.00092781592132121</v>
       </c>
     </row>
     <row r="703">
       <c r="B703" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C703">
@@ -9659,7 +9659,7 @@
         <v>5</v>
       </c>
       <c r="D707">
-        <v>0.0009278159213212099</v>
+        <v>0.00092781592132121</v>
       </c>
     </row>
     <row r="708">
@@ -9717,7 +9717,7 @@
     <row r="712">
       <c r="B712" t="inlineStr">
         <is>
-          <t>Tuzamapan de Galeana</t>
+          <t>Tuzamapan De Galeana</t>
         </is>
       </c>
       <c r="C712">
@@ -9743,7 +9743,7 @@
     <row r="714">
       <c r="B714" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C714">
@@ -9808,7 +9808,7 @@
     <row r="719">
       <c r="B719" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C719">
@@ -9956,7 +9956,7 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C730">
@@ -9982,7 +9982,7 @@
     <row r="732">
       <c r="B732" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C732">
@@ -9995,7 +9995,7 @@
     <row r="733">
       <c r="B733" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C733">
@@ -10008,7 +10008,7 @@
     <row r="734">
       <c r="B734" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C734">
@@ -10028,7 +10028,7 @@
         <v>5</v>
       </c>
       <c r="D735">
-        <v>0.0009278159213212099</v>
+        <v>0.00092781592132121</v>
       </c>
     </row>
     <row r="736">
@@ -10047,7 +10047,7 @@
     <row r="737">
       <c r="B737" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C737">
@@ -10117,7 +10117,7 @@
     <row r="742">
       <c r="B742" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C742">
@@ -10130,7 +10130,7 @@
     <row r="743">
       <c r="B743" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C743">
@@ -10195,7 +10195,7 @@
     <row r="748">
       <c r="B748" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C748">
@@ -10234,7 +10234,7 @@
     <row r="751">
       <c r="B751" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C751">
@@ -10254,7 +10254,7 @@
         <v>5</v>
       </c>
       <c r="D752">
-        <v>0.0009278159213212099</v>
+        <v>0.00092781592132121</v>
       </c>
     </row>
     <row r="753">
@@ -10273,7 +10273,7 @@
     <row r="754">
       <c r="B754" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C754">
@@ -10325,7 +10325,7 @@
     <row r="758">
       <c r="B758" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C758">
@@ -10338,7 +10338,7 @@
     <row r="759">
       <c r="B759" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C759">
@@ -10351,7 +10351,7 @@
     <row r="760">
       <c r="B760" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C760">
@@ -10364,7 +10364,7 @@
     <row r="761">
       <c r="B761" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C761">
@@ -10454,7 +10454,7 @@
         <v>5</v>
       </c>
       <c r="D767">
-        <v>0.0009278159213212099</v>
+        <v>0.00092781592132121</v>
       </c>
     </row>
     <row r="768">
@@ -10813,7 +10813,7 @@
     <row r="794">
       <c r="B794" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C794">
@@ -10870,7 +10870,7 @@
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C798">
@@ -10948,7 +10948,7 @@
     <row r="804">
       <c r="B804" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C804">
@@ -10961,7 +10961,7 @@
     <row r="805">
       <c r="B805" t="inlineStr">
         <is>
-          <t>Mazatecochco de José María Morelos</t>
+          <t>Mazatecochco De José María Morelos</t>
         </is>
       </c>
       <c r="C805">
@@ -10974,7 +10974,7 @@
     <row r="806">
       <c r="B806" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C806">
@@ -11039,7 +11039,7 @@
     <row r="811">
       <c r="B811" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C811">
@@ -11078,7 +11078,7 @@
     <row r="814">
       <c r="B814" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C814">
@@ -11098,7 +11098,7 @@
         <v>5</v>
       </c>
       <c r="D815">
-        <v>0.0009278159213212099</v>
+        <v>0.00092781592132121</v>
       </c>
     </row>
     <row r="816">
@@ -11117,7 +11117,7 @@
     <row r="817">
       <c r="B817" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C817">
@@ -11265,7 +11265,7 @@
     <row r="828">
       <c r="B828" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C828">
@@ -11304,7 +11304,7 @@
     <row r="831">
       <c r="B831" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C831">
@@ -11415,7 +11415,7 @@
         <v>5</v>
       </c>
       <c r="D839">
-        <v>0.0009278159213212099</v>
+        <v>0.00092781592132121</v>
       </c>
     </row>
     <row r="840">
@@ -11447,7 +11447,7 @@
     <row r="842">
       <c r="B842" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C842">
@@ -11603,7 +11603,7 @@
     <row r="854">
       <c r="B854" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C854">
@@ -11681,7 +11681,7 @@
     <row r="860">
       <c r="B860" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C860">
@@ -11720,7 +11720,7 @@
     <row r="863">
       <c r="B863" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C863">
@@ -11746,7 +11746,7 @@
     <row r="865">
       <c r="B865" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C865">
@@ -11759,7 +11759,7 @@
     <row r="866">
       <c r="B866" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C866">
@@ -11798,7 +11798,7 @@
     <row r="869">
       <c r="B869" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C869">
@@ -11870,7 +11870,7 @@
         <v>5</v>
       </c>
       <c r="D874">
-        <v>0.0009278159213212099</v>
+        <v>0.00092781592132121</v>
       </c>
     </row>
     <row r="875">
@@ -11902,20 +11902,20 @@
     <row r="877">
       <c r="B877" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C877">
         <v>5</v>
       </c>
       <c r="D877">
-        <v>0.0009278159213212099</v>
+        <v>0.00092781592132121</v>
       </c>
     </row>
     <row r="878">
       <c r="B878" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C878">
@@ -11954,7 +11954,7 @@
     <row r="881">
       <c r="B881" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C881">
@@ -11987,7 +11987,7 @@
         <v>5</v>
       </c>
       <c r="D883">
-        <v>0.0009278159213212099</v>
+        <v>0.00092781592132121</v>
       </c>
     </row>
     <row r="884">
@@ -12006,7 +12006,7 @@
     <row r="885">
       <c r="B885" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C885">
@@ -12130,7 +12130,7 @@
         <v>5</v>
       </c>
       <c r="D894">
-        <v>0.0009278159213212099</v>
+        <v>0.00092781592132121</v>
       </c>
     </row>
     <row r="895">
@@ -12195,7 +12195,7 @@
         <v>5</v>
       </c>
       <c r="D899">
-        <v>0.0009278159213212099</v>
+        <v>0.00092781592132121</v>
       </c>
     </row>
     <row r="900">
@@ -12221,7 +12221,7 @@
         <v>5</v>
       </c>
       <c r="D901">
-        <v>0.0009278159213212099</v>
+        <v>0.00092781592132121</v>
       </c>
     </row>
     <row r="902">
@@ -12279,7 +12279,7 @@
     <row r="906">
       <c r="B906" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C906">
@@ -12364,7 +12364,7 @@
         <v>5</v>
       </c>
       <c r="D912">
-        <v>0.0009278159213212099</v>
+        <v>0.00092781592132121</v>
       </c>
     </row>
     <row r="913">
@@ -12510,7 +12510,7 @@
     <row r="923">
       <c r="B923" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C923">
@@ -12536,7 +12536,7 @@
     <row r="925">
       <c r="B925" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C925">
@@ -12569,7 +12569,7 @@
         <v>5</v>
       </c>
       <c r="D927">
-        <v>0.0009278159213212099</v>
+        <v>0.00092781592132121</v>
       </c>
     </row>
     <row r="928">
@@ -12674,41 +12674,6 @@
       </c>
       <c r="D935">
         <v>1</v>
-      </c>
-    </row>
-    <row r="937">
-      <c r="A937" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 814,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="938">
-      <c r="A938" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="939">
-      <c r="A939" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="940">
-      <c r="A940" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="941">
-      <c r="A941" t="inlineStr">
-        <is>
-          <t>Marzo de 2017</t>
-        </is>
       </c>
     </row>
   </sheetData>
